--- a/Workbook.xlsx
+++ b/Workbook.xlsx
@@ -4,12 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12520" yWindow="0" windowWidth="21080" windowHeight="19160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="0.4.0" sheetId="1" r:id="rId1"/>
     <sheet name="0.5.0" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="parsing" sheetId="4" r:id="rId3"/>
+    <sheet name="abducing" sheetId="5" r:id="rId4"/>
+    <sheet name="deducing" sheetId="6" r:id="rId5"/>
+    <sheet name="inducing" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_2014.21.06_19_50_15_v0.4.0" localSheetId="0">'0.4.0'!$A$1:$M$10</definedName>
@@ -28,7 +32,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="2014.21.06-19/50/15-v0.4.0.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Samsung SSD:Users:stefano:Documents:workspace:bristol:XHAIL:2014.21.06-19/50/15-v0.4.0.csv" decimal="," thousands="." comma="1">
+    <textPr fileType="mac" sourceFile="Samsung SSD:Users:stefano:Documents:workspace:bristol:XHAIL:2014.21.06-19/50/15-v0.4.0.csv" decimal="," thousands="." comma="1">
       <textFields count="13">
         <textField type="text"/>
         <textField/>
@@ -47,7 +51,7 @@
     </textPr>
   </connection>
   <connection id="2" name="2014.21.06-22/10/55-v0.5.0.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="Samsung SSD:Users:stefano:Documents:workspace:bristol:XHAIL:2014.21.06-22/10/55-v0.5.0.csv" comma="1">
+    <textPr sourceFile="Samsung SSD:Users:stefano:Documents:workspace:bristol:XHAIL:2014.21.06-22/10/55-v0.5.0.csv" comma="1">
       <textFields count="13">
         <textField/>
         <textField/>
@@ -69,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="36">
   <si>
     <t>Problem</t>
   </si>
@@ -166,13 +170,25 @@
   <si>
     <t>Time</t>
   </si>
+  <si>
+    <t>parsing</t>
+  </si>
+  <si>
+    <t>abducing</t>
+  </si>
+  <si>
+    <t>deducing</t>
+  </si>
+  <si>
+    <t>inducing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -223,7 +239,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -267,16 +283,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -298,6 +345,19 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -319,6 +379,19 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -656,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -671,9 +744,13 @@
     <col min="12" max="12" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.33203125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,7 +806,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -770,15 +847,15 @@
         <v>0.20200000000000001</v>
       </c>
       <c r="N2" s="2">
-        <f>MIN(B2:M2)</f>
+        <f t="shared" ref="N2:N10" si="0">MIN(B2:M2)</f>
         <v>0.188</v>
       </c>
       <c r="O2" s="2">
-        <f>MAX(B2:M2)</f>
+        <f t="shared" ref="O2:O10" si="1">MAX(B2:M2)</f>
         <v>0.221</v>
       </c>
       <c r="P2" s="2">
-        <f>(SUM(B2:M2)-N2-O2)/10</f>
+        <f t="shared" ref="P2:P11" si="2">(SUM(B2:M2)-N2-O2)/10</f>
         <v>0.19979999999999998</v>
       </c>
       <c r="Q2" s="2">
@@ -789,8 +866,24 @@
         <f>SUM(B2:M11)</f>
         <v>82577.802000000011</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2" s="7" t="str">
+        <f>CONCATENATE(ROUNDDOWN(INT(R2)/3600,0),"h")</f>
+        <v>22h</v>
+      </c>
+      <c r="T2" s="7" t="str">
+        <f>CONCATENATE(ROUNDDOWN((INT(R2)-3600*ROUNDDOWN(INT(R2)/3600,0))/60,0),"m")</f>
+        <v>56m</v>
+      </c>
+      <c r="U2" s="7" t="str">
+        <f>CONCATENATE(INT(R2)-3600*ROUNDDOWN(INT(R2)/3600,0)-60*ROUNDDOWN((INT(R2)-3600*ROUNDDOWN(INT(R2)/3600,0))/60,0),"s")</f>
+        <v>17s</v>
+      </c>
+      <c r="V2" s="6">
+        <f>MOD(1000*R2,1000)</f>
+        <v>802.00000001490116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -831,23 +924,26 @@
         <v>0.11700000000000001</v>
       </c>
       <c r="N3" s="2">
-        <f>MIN(B3:M3)</f>
+        <f t="shared" si="0"/>
         <v>0.112</v>
       </c>
       <c r="O3" s="2">
-        <f>MAX(B3:M3)</f>
+        <f t="shared" si="1"/>
         <v>0.11899999999999999</v>
       </c>
       <c r="P3" s="2">
-        <f>(SUM(B3:M3)-N3-O3)/10</f>
+        <f t="shared" si="2"/>
         <v>0.1147</v>
       </c>
       <c r="Q3" s="2">
-        <f t="shared" ref="Q3:Q10" si="0">(O3-N3)/2</f>
+        <f t="shared" ref="Q3:Q10" si="3">(O3-N3)/2</f>
         <v>3.4999999999999962E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -888,23 +984,26 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="N4" s="2">
-        <f>MIN(B4:M4)</f>
+        <f t="shared" si="0"/>
         <v>0.222</v>
       </c>
       <c r="O4" s="2">
-        <f>MAX(B4:M4)</f>
+        <f t="shared" si="1"/>
         <v>0.23499999999999999</v>
       </c>
       <c r="P4" s="2">
-        <f>(SUM(B4:M4)-N4-O4)/10</f>
+        <f t="shared" si="2"/>
         <v>0.23050000000000001</v>
       </c>
       <c r="Q4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.4999999999999919E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -945,23 +1044,26 @@
         <v>0.221</v>
       </c>
       <c r="N5" s="2">
-        <f>MIN(B5:M5)</f>
+        <f t="shared" si="0"/>
         <v>0.20799999999999999</v>
       </c>
       <c r="O5" s="2">
-        <f>MAX(B5:M5)</f>
+        <f t="shared" si="1"/>
         <v>0.223</v>
       </c>
       <c r="P5" s="2">
-        <f>(SUM(B5:M5)-N5-O5)/10</f>
+        <f t="shared" si="2"/>
         <v>0.21750000000000003</v>
       </c>
       <c r="Q5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.5000000000000067E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1002,23 +1104,23 @@
         <v>0.13600000000000001</v>
       </c>
       <c r="N6" s="2">
-        <f>MIN(B6:M6)</f>
+        <f t="shared" si="0"/>
         <v>0.123</v>
       </c>
       <c r="O6" s="2">
-        <f>MAX(B6:M6)</f>
+        <f t="shared" si="1"/>
         <v>0.161</v>
       </c>
       <c r="P6" s="2">
-        <f>(SUM(B6:M6)-N6-O6)/10</f>
+        <f t="shared" si="2"/>
         <v>0.13430000000000003</v>
       </c>
       <c r="Q6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.9000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1059,23 +1161,23 @@
         <v>0.218</v>
       </c>
       <c r="N7" s="2">
-        <f>MIN(B7:M7)</f>
+        <f t="shared" si="0"/>
         <v>0.19600000000000001</v>
       </c>
       <c r="O7" s="2">
-        <f>MAX(B7:M7)</f>
+        <f t="shared" si="1"/>
         <v>0.28699999999999998</v>
       </c>
       <c r="P7" s="2">
-        <f>(SUM(B7:M7)-N7-O7)/10</f>
+        <f t="shared" si="2"/>
         <v>0.21420000000000003</v>
       </c>
       <c r="Q7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.5499999999999985E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1116,23 +1218,23 @@
         <v>0.64900000000000002</v>
       </c>
       <c r="N8" s="2">
-        <f>MIN(B8:M8)</f>
+        <f t="shared" si="0"/>
         <v>0.64900000000000002</v>
       </c>
       <c r="O8" s="2">
-        <f>MAX(B8:M8)</f>
+        <f t="shared" si="1"/>
         <v>0.70099999999999996</v>
       </c>
       <c r="P8" s="2">
-        <f>(SUM(B8:M8)-N8-O8)/10</f>
+        <f t="shared" si="2"/>
         <v>0.66700000000000004</v>
       </c>
       <c r="Q8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.5999999999999968E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1173,23 +1275,23 @@
         <v>10.869</v>
       </c>
       <c r="N9" s="2">
-        <f>MIN(B9:M9)</f>
+        <f t="shared" si="0"/>
         <v>10.147</v>
       </c>
       <c r="O9" s="2">
-        <f>MAX(B9:M9)</f>
+        <f t="shared" si="1"/>
         <v>11.441000000000001</v>
       </c>
       <c r="P9" s="2">
-        <f>(SUM(B9:M9)-N9-O9)/10</f>
+        <f t="shared" si="2"/>
         <v>10.809900000000001</v>
       </c>
       <c r="Q9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.64700000000000024</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1230,23 +1332,23 @@
         <v>598.46400000000006</v>
       </c>
       <c r="N10" s="2">
-        <f>MIN(B10:M10)</f>
+        <f t="shared" si="0"/>
         <v>491.61799999999999</v>
       </c>
       <c r="O10" s="2">
-        <f>MAX(B10:M10)</f>
+        <f t="shared" si="1"/>
         <v>614.85900000000004</v>
       </c>
       <c r="P10" s="2">
-        <f>(SUM(B10:M10)-N10-O10)/10</f>
+        <f t="shared" si="2"/>
         <v>558.39760000000001</v>
       </c>
       <c r="Q10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>61.620500000000021</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1287,15 +1389,15 @@
         <v>6329.9849999999997</v>
       </c>
       <c r="N11" s="2">
-        <f t="shared" ref="N11" si="1">MIN(B11:M11)</f>
+        <f t="shared" ref="N11" si="4">MIN(B11:M11)</f>
         <v>4794.9979999999996</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" ref="O11" si="2">MAX(B11:M11)</f>
+        <f t="shared" ref="O11" si="5">MAX(B11:M11)</f>
         <v>7825.5230000000001</v>
       </c>
       <c r="P11" s="2">
-        <f>(SUM(B11:M11)-N11-O11)/10</f>
+        <f t="shared" si="2"/>
         <v>6311.5716000000002</v>
       </c>
       <c r="Q11" s="2">
@@ -1303,7 +1405,7 @@
         <v>1515.2625000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:22">
       <c r="L13"/>
       <c r="M13"/>
     </row>
@@ -1323,10 +1425,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1334,9 +1436,13 @@
     <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="7.5" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.33203125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1392,7 +1498,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1433,15 +1539,15 @@
         <v>0.64500000000000002</v>
       </c>
       <c r="N2" s="2">
-        <f>MIN(B2:M2)</f>
+        <f t="shared" ref="N2:N12" si="0">MIN(B2:M2)</f>
         <v>0.61899999999999999</v>
       </c>
       <c r="O2" s="2">
-        <f>MAX(B2:M2)</f>
+        <f t="shared" ref="O2:O12" si="1">MAX(B2:M2)</f>
         <v>0.65500000000000003</v>
       </c>
       <c r="P2" s="2">
-        <f>(SUM(B2:M2)-N2-O2)/10</f>
+        <f t="shared" ref="P2:P12" si="2">(SUM(B2:M2)-N2-O2)/10</f>
         <v>0.63169999999999993</v>
       </c>
       <c r="Q2" s="2">
@@ -1452,8 +1558,24 @@
         <f>SUM(B2:M13)</f>
         <v>537.92099999999994</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2" s="7" t="str">
+        <f>CONCATENATE(ROUNDDOWN(INT(R2)/3600,0),"h")</f>
+        <v>0h</v>
+      </c>
+      <c r="T2" s="7" t="str">
+        <f>CONCATENATE(ROUNDDOWN((INT(R2)-3600*ROUNDDOWN(INT(R2)/3600,0))/60,0),"m")</f>
+        <v>8m</v>
+      </c>
+      <c r="U2" s="7" t="str">
+        <f>CONCATENATE(INT(R2)-3600*ROUNDDOWN(INT(R2)/3600,0)-60*ROUNDDOWN((INT(R2)-3600*ROUNDDOWN(INT(R2)/3600,0))/60,0),"s")</f>
+        <v>57s</v>
+      </c>
+      <c r="V2" s="6">
+        <f>MOD(1000*R2,1000)</f>
+        <v>920.99999999988358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1494,23 +1616,26 @@
         <v>0.66400000000000003</v>
       </c>
       <c r="N3" s="2">
-        <f>MIN(B3:M3)</f>
+        <f t="shared" si="0"/>
         <v>0.64500000000000002</v>
       </c>
       <c r="O3" s="2">
-        <f>MAX(B3:M3)</f>
+        <f t="shared" si="1"/>
         <v>0.69399999999999995</v>
       </c>
       <c r="P3" s="2">
-        <f>(SUM(B3:M3)-N3-O3)/10</f>
+        <f t="shared" si="2"/>
         <v>0.66320000000000001</v>
       </c>
       <c r="Q3" s="2">
-        <f t="shared" ref="Q3:Q13" si="0">(O3-N3)/2</f>
+        <f t="shared" ref="Q3:Q13" si="3">(O3-N3)/2</f>
         <v>2.4499999999999966E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1551,23 +1676,26 @@
         <v>0.69099999999999995</v>
       </c>
       <c r="N4" s="2">
-        <f>MIN(B4:M4)</f>
+        <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
       <c r="O4" s="2">
-        <f>MAX(B4:M4)</f>
+        <f t="shared" si="1"/>
         <v>0.70699999999999996</v>
       </c>
       <c r="P4" s="2">
-        <f>(SUM(B4:M4)-N4-O4)/10</f>
+        <f t="shared" si="2"/>
         <v>0.6915</v>
       </c>
       <c r="Q4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.3499999999999956E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1608,23 +1736,26 @@
         <v>0.64500000000000002</v>
       </c>
       <c r="N5" s="2">
-        <f>MIN(B5:M5)</f>
+        <f t="shared" si="0"/>
         <v>0.63</v>
       </c>
       <c r="O5" s="2">
-        <f>MAX(B5:M5)</f>
+        <f t="shared" si="1"/>
         <v>0.68100000000000005</v>
       </c>
       <c r="P5" s="2">
-        <f>(SUM(B5:M5)-N5-O5)/10</f>
+        <f t="shared" si="2"/>
         <v>0.65370000000000006</v>
       </c>
       <c r="Q5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.5500000000000023E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1665,23 +1796,23 @@
         <v>0.65600000000000003</v>
       </c>
       <c r="N6" s="2">
-        <f>MIN(B6:M6)</f>
+        <f t="shared" si="0"/>
         <v>0.629</v>
       </c>
       <c r="O6" s="2">
-        <f>MAX(B6:M6)</f>
+        <f t="shared" si="1"/>
         <v>0.66400000000000003</v>
       </c>
       <c r="P6" s="2">
-        <f>(SUM(B6:M6)-N6-O6)/10</f>
+        <f t="shared" si="2"/>
         <v>0.64770000000000005</v>
       </c>
       <c r="Q6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.7500000000000016E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1722,23 +1853,23 @@
         <v>0.66800000000000004</v>
       </c>
       <c r="N7" s="2">
-        <f>MIN(B7:M7)</f>
+        <f t="shared" si="0"/>
         <v>0.64100000000000001</v>
       </c>
       <c r="O7" s="2">
-        <f>MAX(B7:M7)</f>
+        <f t="shared" si="1"/>
         <v>0.67300000000000004</v>
       </c>
       <c r="P7" s="2">
-        <f>(SUM(B7:M7)-N7-O7)/10</f>
+        <f t="shared" si="2"/>
         <v>0.65429999999999999</v>
       </c>
       <c r="Q7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.6000000000000014E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1779,23 +1910,23 @@
         <v>1.087</v>
       </c>
       <c r="N8" s="2">
-        <f>MIN(B8:M8)</f>
+        <f t="shared" si="0"/>
         <v>0.871</v>
       </c>
       <c r="O8" s="2">
-        <f>MAX(B8:M8)</f>
+        <f t="shared" si="1"/>
         <v>1.087</v>
       </c>
       <c r="P8" s="2">
-        <f>(SUM(B8:M8)-N8-O8)/10</f>
+        <f t="shared" si="2"/>
         <v>0.92080000000000006</v>
       </c>
       <c r="Q8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.10799999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1836,23 +1967,23 @@
         <v>7.6050000000000004</v>
       </c>
       <c r="N9" s="2">
-        <f>MIN(B9:M9)</f>
+        <f t="shared" si="0"/>
         <v>7.24</v>
       </c>
       <c r="O9" s="2">
-        <f>MAX(B9:M9)</f>
+        <f t="shared" si="1"/>
         <v>8.2119999999999997</v>
       </c>
       <c r="P9" s="2">
-        <f>(SUM(B9:M9)-N9-O9)/10</f>
+        <f t="shared" si="2"/>
         <v>7.7180999999999997</v>
       </c>
       <c r="Q9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.48599999999999977</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1893,23 +2024,23 @@
         <v>8.0510000000000002</v>
       </c>
       <c r="N10" s="2">
-        <f>MIN(B10:M10)</f>
+        <f t="shared" si="0"/>
         <v>7.1779999999999999</v>
       </c>
       <c r="O10" s="2">
-        <f>MAX(B10:M10)</f>
+        <f t="shared" si="1"/>
         <v>8.3510000000000009</v>
       </c>
       <c r="P10" s="2">
-        <f>(SUM(B10:M10)-N10-O10)/10</f>
+        <f t="shared" si="2"/>
         <v>7.9272000000000009</v>
       </c>
       <c r="Q10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.58650000000000047</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1950,23 +2081,23 @@
         <v>7.6639999999999997</v>
       </c>
       <c r="N11" s="2">
-        <f>MIN(B11:M11)</f>
+        <f t="shared" si="0"/>
         <v>7.3609999999999998</v>
       </c>
       <c r="O11" s="2">
-        <f>MAX(B11:M11)</f>
+        <f t="shared" si="1"/>
         <v>8.0660000000000007</v>
       </c>
       <c r="P11" s="2">
-        <f>(SUM(B11:M11)-N11-O11)/10</f>
+        <f t="shared" si="2"/>
         <v>7.5941000000000001</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.35250000000000048</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2007,23 +2138,23 @@
         <v>7.5019999999999998</v>
       </c>
       <c r="N12" s="2">
-        <f>MIN(B12:M12)</f>
+        <f t="shared" si="0"/>
         <v>7.5019999999999998</v>
       </c>
       <c r="O12" s="2">
-        <f>MAX(B12:M12)</f>
+        <f t="shared" si="1"/>
         <v>8.1460000000000008</v>
       </c>
       <c r="P12" s="2">
-        <f>(SUM(B12:M12)-N12-O12)/10</f>
+        <f t="shared" si="2"/>
         <v>7.8867999999999991</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.32200000000000051</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2064,19 +2195,19 @@
         <v>8.7279999999999998</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" ref="N13" si="1">MIN(B13:M13)</f>
+        <f t="shared" ref="N13" si="4">MIN(B13:M13)</f>
         <v>8.5470000000000006</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" ref="O13" si="2">MAX(B13:M13)</f>
+        <f t="shared" ref="O13" si="5">MAX(B13:M13)</f>
         <v>9.0169999999999995</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" ref="P13" si="3">(SUM(B13:M13)-N13-O13)/10</f>
+        <f t="shared" ref="P13" si="6">(SUM(B13:M13)-N13-O13)/10</f>
         <v>8.8534000000000006</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.23499999999999943</v>
       </c>
     </row>
@@ -2096,18 +2227,2439 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="J2" s="2">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="K2" s="2">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="L2" s="2">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="M2" s="2">
+        <v>7.8E-2</v>
+      </c>
+      <c r="N2" s="2">
+        <f>MIN(B2:M2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="O2" s="2">
+        <f>MAX(B2:M2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="P2" s="2">
+        <f>(SUM(B2:M2)-N2-O2)/10</f>
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="L3" s="2">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="M3" s="2">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" ref="N3:N11" si="0">MIN(B3:M3)</f>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="O3" s="2">
+        <f t="shared" ref="O3:O11" si="1">MAX(B3:M3)</f>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" ref="P3:P11" si="2">(SUM(B3:M3)-N3-O3)/10</f>
+        <v>5.3600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="M4" s="2">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" si="0"/>
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" si="1"/>
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" si="2"/>
+        <v>5.8299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="K5" s="2">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="M5" s="2">
+        <v>6.2E-2</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="0"/>
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" si="2"/>
+        <v>6.93E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K6" s="2">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="L6" s="2">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="M6" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="1"/>
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" si="2"/>
+        <v>4.6299999999999994E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="K7" s="2">
+        <v>4.7E-2</v>
+      </c>
+      <c r="L7" s="2">
+        <v>4.7E-2</v>
+      </c>
+      <c r="M7" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="1"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="2"/>
+        <v>4.4599999999999994E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.191</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.182</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.187</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.193</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.191</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.191</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.182</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.19410000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2">
+        <v>7.8E-2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="E9" s="2">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="K9" s="2">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="L9" s="2">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="0"/>
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="1"/>
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="2"/>
+        <v>7.8399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="I10" s="2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K10" s="2">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="M10" s="2">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="1"/>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="2"/>
+        <v>7.959999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>9.4E-2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="K11" s="2">
+        <v>9.4E-2</v>
+      </c>
+      <c r="L11" s="2">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="M11" s="2">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="0"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="1"/>
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="2"/>
+        <v>9.4299999999999981E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="C2">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D2">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="F2">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="G2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H2">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="J2">
+        <v>0.04</v>
+      </c>
+      <c r="K2">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="L2">
+        <v>4.7E-2</v>
+      </c>
+      <c r="M2">
+        <v>3.9E-2</v>
+      </c>
+      <c r="N2" s="2">
+        <f>MIN(B2:M2)</f>
+        <v>3.9E-2</v>
+      </c>
+      <c r="O2" s="2">
+        <f>MAX(B2:M2)</f>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="P2" s="2">
+        <f>(SUM(B2:M2)-N2-O2)/10</f>
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C3">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G3">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="I3">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="J3">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="K3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="L3">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="M3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" ref="N3:N11" si="0">MIN(B3:M3)</f>
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="O3" s="2">
+        <f t="shared" ref="O3:O11" si="1">MAX(B3:M3)</f>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" ref="P3:P11" si="2">(SUM(B3:M3)-N3-O3)/10</f>
+        <v>4.4099999999999993E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C4">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D4">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E4">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.05</v>
+      </c>
+      <c r="G4">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H4">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I4">
+        <v>4.7E-2</v>
+      </c>
+      <c r="J4">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="K4">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="L4">
+        <v>0.128</v>
+      </c>
+      <c r="M4">
+        <v>4.7E-2</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.128</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" si="2"/>
+        <v>4.6299999999999994E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="C5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D5">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F5">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G5">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H5">
+        <v>3.9E-2</v>
+      </c>
+      <c r="I5">
+        <v>4.7E-2</v>
+      </c>
+      <c r="J5">
+        <v>0.05</v>
+      </c>
+      <c r="K5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="L5">
+        <v>0.05</v>
+      </c>
+      <c r="M5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="0"/>
+        <v>3.9E-2</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" si="1"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" si="2"/>
+        <v>4.6099999999999988E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>4.7E-2</v>
+      </c>
+      <c r="C6">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E6">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F6">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G6">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="I6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J6">
+        <v>4.7E-2</v>
+      </c>
+      <c r="K6">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="L6">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="M6">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="1"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" si="2"/>
+        <v>4.5399999999999989E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>0.113</v>
+      </c>
+      <c r="C7">
+        <v>0.1</v>
+      </c>
+      <c r="D7">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E7">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="F7">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="G7">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.109</v>
+      </c>
+      <c r="I7">
+        <v>0.107</v>
+      </c>
+      <c r="J7">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="K7">
+        <v>0.106</v>
+      </c>
+      <c r="L7">
+        <v>0.1</v>
+      </c>
+      <c r="M7">
+        <v>0.107</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="0"/>
+        <v>9.4E-2</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.113</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>0.104</v>
+      </c>
+      <c r="C8">
+        <v>9.4E-2</v>
+      </c>
+      <c r="D8">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E8">
+        <v>9.4E-2</v>
+      </c>
+      <c r="F8">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.09</v>
+      </c>
+      <c r="H8">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I8">
+        <v>0.106</v>
+      </c>
+      <c r="J8">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="K8">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="L8">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="M8">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.106</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="2"/>
+        <v>9.619999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>0.437</v>
+      </c>
+      <c r="C9">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="E9">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.43</v>
+      </c>
+      <c r="G9">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.5</v>
+      </c>
+      <c r="J9">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="K9">
+        <v>0.439</v>
+      </c>
+      <c r="L9">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="M9">
+        <v>0.441</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.44379999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="C10">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="D10">
+        <v>0.437</v>
+      </c>
+      <c r="E10">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="F10">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="G10">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="H10">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="J10">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="K10">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="L10">
+        <v>0.432</v>
+      </c>
+      <c r="M10">
+        <v>0.47</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.45289999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="D11">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.435</v>
+      </c>
+      <c r="F11">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="G11">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="H11">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="I11">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="J11">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="K11">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="L11">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="M11">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.44299999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G2" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J2" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K2" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L2" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="N2" s="2">
+        <f>MIN(B2:M2)</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O2" s="2">
+        <f>MAX(B2:M2)</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="P2" s="2">
+        <f>(SUM(B2:M2)-N2-O2)/10</f>
+        <v>8.6999999999999977E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" ref="N3:N11" si="0">MIN(B3:M3)</f>
+        <v>0.01</v>
+      </c>
+      <c r="O3" s="2">
+        <f t="shared" ref="O3:O11" si="1">MAX(B3:M3)</f>
+        <v>1.9E-2</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" ref="P3:P11" si="2">(SUM(B3:M3)-N3-O3)/10</f>
+        <v>1.29E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2.3E-2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9E-2</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I6" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K6" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L6" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="M6" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="1"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" si="2"/>
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="K9" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="L9" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="M9" s="2">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="0"/>
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="1"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="2"/>
+        <v>4.1799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="I10" s="2">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="K10" s="2">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="M10" s="2">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="0"/>
+        <v>6.2E-2</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="1"/>
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="2"/>
+        <v>6.7699999999999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.104</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.107</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="F11" s="2">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.112</v>
+      </c>
+      <c r="I11" s="2">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="K11" s="2">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="L11" s="2">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="0"/>
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.112</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10089999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="K2" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L2" s="2">
+        <v>2.3E-2</v>
+      </c>
+      <c r="M2" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="N2" s="2">
+        <f>MIN(parsing!B2:M2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="O2" s="2">
+        <f>MAX(parsing!B2:M2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="P2" s="2">
+        <f>(SUM(parsing!B2:M2)-N2-O2)/10</f>
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="M3" s="2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" ref="N3:N11" si="0">MIN(B3:M3)</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="O3" s="2">
+        <f t="shared" ref="O3:O11" si="1">MAX(B3:M3)</f>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" ref="P3:P11" si="2">(SUM(B3:M3)-N3-O3)/10</f>
+        <v>2.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="M4" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" si="1"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" si="2"/>
+        <v>2.6500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="M5" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" si="2"/>
+        <v>2.4399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="L8" s="2">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.105</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.105</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="2"/>
+        <v>3.3700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.436</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.439</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.432</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.49</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.46069999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1.63</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.659</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.696</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.7370000000000001</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1.698</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.77</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1.7470000000000001</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1.7869999999999999</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1.7989999999999999</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1.7350000000000001</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1.7090000000000001</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1.6919999999999999</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="0"/>
+        <v>1.63</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7989999999999999</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7230000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3.7450000000000001</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3.5659999999999998</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3.8029999999999999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3.55</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3.7559999999999998</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3.5739999999999998</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3.431</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3.448</v>
+      </c>
+      <c r="J11" s="2">
+        <v>3.5179999999999998</v>
+      </c>
+      <c r="K11" s="2">
+        <v>3.6890000000000001</v>
+      </c>
+      <c r="L11" s="2">
+        <v>3.63</v>
+      </c>
+      <c r="M11" s="2">
+        <v>3.4670000000000001</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="0"/>
+        <v>3.431</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="1"/>
+        <v>3.8029999999999999</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="2"/>
+        <v>3.5943000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="5" max="8" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2117,8 +4669,20 @@
       <c r="C1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -2130,8 +4694,24 @@
         <f>'0.5.0'!P2</f>
         <v>0.63169999999999993</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="E2" s="2">
+        <f>parsing!P2</f>
+        <v>7.0400000000000004E-2</v>
+      </c>
+      <c r="F2" s="2">
+        <f>abducing!P2</f>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G2" s="2">
+        <f>deducing!P2</f>
+        <v>8.6999999999999977E-3</v>
+      </c>
+      <c r="H2" s="2">
+        <f>inducing!P2</f>
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -2143,8 +4723,24 @@
         <f>'0.5.0'!P3</f>
         <v>0.66320000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="E3" s="2">
+        <f>parsing!P3</f>
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="F3" s="2">
+        <f>abducing!P3</f>
+        <v>4.4099999999999993E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <f>deducing!P3</f>
+        <v>1.29E-2</v>
+      </c>
+      <c r="H3" s="2">
+        <f>inducing!P3</f>
+        <v>2.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -2156,8 +4752,24 @@
         <f>'0.5.0'!P4</f>
         <v>0.6915</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="E4" s="2">
+        <f>parsing!P4</f>
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <f>abducing!P4</f>
+        <v>4.6299999999999994E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <f>deducing!P4</f>
+        <v>1.9999999999999993E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <f>inducing!P4</f>
+        <v>2.6500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -2169,8 +4781,24 @@
         <f>'0.5.0'!P5</f>
         <v>0.65370000000000006</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="E5" s="2">
+        <f>parsing!P5</f>
+        <v>6.93E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <f>abducing!P5</f>
+        <v>4.6099999999999988E-2</v>
+      </c>
+      <c r="G5" s="2">
+        <f>deducing!P5</f>
+        <v>1.4300000000000002E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <f>inducing!P5</f>
+        <v>2.4399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -2182,8 +4810,24 @@
         <f>'0.5.0'!P6</f>
         <v>0.64770000000000005</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="E6" s="2">
+        <f>parsing!P6</f>
+        <v>4.6299999999999994E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <f>abducing!P6</f>
+        <v>4.5399999999999989E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <f>deducing!P6</f>
+        <v>6.3E-3</v>
+      </c>
+      <c r="H6" s="2">
+        <f>inducing!P6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +4839,24 @@
         <f>'0.5.0'!P9</f>
         <v>7.7180999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="E7" s="2">
+        <f>parsing!P7</f>
+        <v>4.4599999999999994E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <f>abducing!P7</f>
+        <v>0.1022</v>
+      </c>
+      <c r="G7" s="2">
+        <f>deducing!P7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <f>inducing!P7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -2208,8 +4868,24 @@
         <f>'0.5.0'!P10</f>
         <v>7.9272000000000009</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="E8" s="2">
+        <f>parsing!P8</f>
+        <v>0.19410000000000005</v>
+      </c>
+      <c r="F8" s="2">
+        <f>abducing!P8</f>
+        <v>9.619999999999998E-2</v>
+      </c>
+      <c r="G8" s="2">
+        <f>deducing!P8</f>
+        <v>1.4900000000000002E-2</v>
+      </c>
+      <c r="H8" s="2">
+        <f>inducing!P8</f>
+        <v>3.3700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -2221,8 +4897,24 @@
         <f>'0.5.0'!P11</f>
         <v>7.5941000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="E9" s="2">
+        <f>parsing!P9</f>
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <f>abducing!P9</f>
+        <v>0.44379999999999997</v>
+      </c>
+      <c r="G9" s="2">
+        <f>deducing!P9</f>
+        <v>4.1799999999999997E-2</v>
+      </c>
+      <c r="H9" s="2">
+        <f>inducing!P9</f>
+        <v>0.46069999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -2234,8 +4926,24 @@
         <f>'0.5.0'!P12</f>
         <v>7.8867999999999991</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="E10" s="2">
+        <f>parsing!P10</f>
+        <v>7.959999999999999E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <f>abducing!P10</f>
+        <v>0.45289999999999997</v>
+      </c>
+      <c r="G10" s="2">
+        <f>deducing!P10</f>
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="H10" s="2">
+        <f>inducing!P10</f>
+        <v>1.7230000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
@@ -2246,6 +4954,22 @@
       <c r="C11" s="2">
         <f>'0.5.0'!P13</f>
         <v>8.8534000000000006</v>
+      </c>
+      <c r="E11" s="2">
+        <f>parsing!P11</f>
+        <v>9.4299999999999981E-2</v>
+      </c>
+      <c r="F11" s="2">
+        <f>abducing!P11</f>
+        <v>0.44299999999999995</v>
+      </c>
+      <c r="G11" s="2">
+        <f>deducing!P11</f>
+        <v>0.10089999999999996</v>
+      </c>
+      <c r="H11" s="2">
+        <f>inducing!P11</f>
+        <v>3.5943000000000005</v>
       </c>
     </row>
   </sheetData>
